--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H2">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I2">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J2">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>1096.533197346557</v>
+        <v>1154.441180123787</v>
       </c>
       <c r="R2">
-        <v>9868.798776119011</v>
+        <v>10389.97062111408</v>
       </c>
       <c r="S2">
-        <v>0.1851899302325851</v>
+        <v>0.1716301363778827</v>
       </c>
       <c r="T2">
-        <v>0.1851899302325851</v>
+        <v>0.1716301363778828</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H3">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I3">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J3">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>144.9855829236966</v>
+        <v>176.0633767154266</v>
       </c>
       <c r="R3">
-        <v>1304.87024631327</v>
+        <v>1584.57039043884</v>
       </c>
       <c r="S3">
-        <v>0.0244861441964025</v>
+        <v>0.02617524554484367</v>
       </c>
       <c r="T3">
-        <v>0.0244861441964025</v>
+        <v>0.02617524554484367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H4">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I4">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J4">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>334.8272480923369</v>
+        <v>832.5190002536897</v>
       </c>
       <c r="R4">
-        <v>3013.445232831033</v>
+        <v>7492.671002283209</v>
       </c>
       <c r="S4">
-        <v>0.05654788643356621</v>
+        <v>0.1237701426549928</v>
       </c>
       <c r="T4">
-        <v>0.05654788643356623</v>
+        <v>0.1237701426549929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.12468433333333</v>
+        <v>19.58102533333333</v>
       </c>
       <c r="H5">
-        <v>48.374053</v>
+        <v>58.743076</v>
       </c>
       <c r="I5">
-        <v>0.2955490655206278</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="J5">
-        <v>0.2955490655206279</v>
+        <v>0.3529199051285138</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>173.6376850126504</v>
+        <v>210.8326919559062</v>
       </c>
       <c r="R5">
-        <v>1562.739165113854</v>
+        <v>1897.494227603156</v>
       </c>
       <c r="S5">
-        <v>0.02932510465807403</v>
+        <v>0.03134438055079454</v>
       </c>
       <c r="T5">
-        <v>0.02932510465807403</v>
+        <v>0.03134438055079455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>44.06925</v>
       </c>
       <c r="I6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J6">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>998.9527982525001</v>
+        <v>866.0655934525832</v>
       </c>
       <c r="R6">
-        <v>8990.5751842725</v>
+        <v>7794.590341073249</v>
       </c>
       <c r="S6">
-        <v>0.1687098935642699</v>
+        <v>0.1287574962463833</v>
       </c>
       <c r="T6">
-        <v>0.1687098935642699</v>
+        <v>0.1287574962463833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>44.06925</v>
       </c>
       <c r="I7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J7">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>132.0833278175</v>
@@ -883,10 +883,10 @@
         <v>1188.7499503575</v>
       </c>
       <c r="S7">
-        <v>0.02230712423718787</v>
+        <v>0.01963675582339443</v>
       </c>
       <c r="T7">
-        <v>0.02230712423718787</v>
+        <v>0.01963675582339444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>44.06925</v>
       </c>
       <c r="I8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J8">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>305.0309988082499</v>
+        <v>624.5585088518333</v>
       </c>
       <c r="R8">
-        <v>2745.27898927425</v>
+        <v>5621.0265796665</v>
       </c>
       <c r="S8">
-        <v>0.05151569466822303</v>
+        <v>0.09285277058352445</v>
       </c>
       <c r="T8">
-        <v>0.05151569466822303</v>
+        <v>0.09285277058352448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>44.06925</v>
       </c>
       <c r="I9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="J9">
-        <v>0.2692481784748309</v>
+        <v>0.2647616806631773</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>158.1856816968333</v>
+        <v>158.1673831649166</v>
       </c>
       <c r="R9">
-        <v>1423.6711352715</v>
+        <v>1423.50644848425</v>
       </c>
       <c r="S9">
-        <v>0.0267154660051501</v>
+        <v>0.0235146580098751</v>
       </c>
       <c r="T9">
-        <v>0.0267154660051501</v>
+        <v>0.02351465800987511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H10">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J10">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>1480.849006331543</v>
+        <v>1128.647550892226</v>
       </c>
       <c r="R10">
-        <v>13327.64105698389</v>
+        <v>10157.82795803004</v>
       </c>
       <c r="S10">
-        <v>0.2500957789797395</v>
+        <v>0.1677954116825816</v>
       </c>
       <c r="T10">
-        <v>0.2500957789797395</v>
+        <v>0.1677954116825816</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H11">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J11">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>195.8005073850033</v>
+        <v>172.1296003234867</v>
       </c>
       <c r="R11">
-        <v>1762.20456646503</v>
+        <v>1549.16640291138</v>
       </c>
       <c r="S11">
-        <v>0.03306811174516001</v>
+        <v>0.02559041316857972</v>
       </c>
       <c r="T11">
-        <v>0.03306811174516001</v>
+        <v>0.02559041316857972</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H12">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J12">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>452.1783734683929</v>
+        <v>813.9180643285952</v>
       </c>
       <c r="R12">
-        <v>4069.605361215537</v>
+        <v>7325.262578957356</v>
       </c>
       <c r="S12">
-        <v>0.07636693684963741</v>
+        <v>0.1210047517242588</v>
       </c>
       <c r="T12">
-        <v>0.07636693684963743</v>
+        <v>0.1210047517242588</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.77610566666667</v>
+        <v>19.14352733333333</v>
       </c>
       <c r="H13">
-        <v>65.328317</v>
+        <v>57.430582</v>
       </c>
       <c r="I13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="J13">
-        <v>0.3991338712384788</v>
+        <v>0.3450346309906436</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>234.4946727877562</v>
+        <v>206.1220662611269</v>
       </c>
       <c r="R13">
-        <v>2110.452055089806</v>
+        <v>1855.098596350142</v>
       </c>
       <c r="S13">
-        <v>0.03960304366394184</v>
+        <v>0.03064405441522353</v>
       </c>
       <c r="T13">
-        <v>0.03960304366394185</v>
+        <v>0.03064405441522353</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H14">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I14">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J14">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>133.8211963809933</v>
+        <v>121.9594986619057</v>
       </c>
       <c r="R14">
-        <v>1204.39076742894</v>
+        <v>1097.635487957151</v>
       </c>
       <c r="S14">
-        <v>0.02260062721439416</v>
+        <v>0.01813165170154153</v>
       </c>
       <c r="T14">
-        <v>0.02260062721439416</v>
+        <v>0.01813165170154154</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H15">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I15">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J15">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>17.69407822015333</v>
+        <v>18.59999584789</v>
       </c>
       <c r="R15">
-        <v>159.24670398138</v>
+        <v>167.39996263101</v>
       </c>
       <c r="S15">
-        <v>0.002988295401406334</v>
+        <v>0.002765251169972221</v>
       </c>
       <c r="T15">
-        <v>0.002988295401406334</v>
+        <v>0.002765251169972221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H16">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I16">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J16">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>40.862404375078</v>
+        <v>87.95043146898466</v>
       </c>
       <c r="R16">
-        <v>367.761639375702</v>
+        <v>791.553883220862</v>
       </c>
       <c r="S16">
-        <v>0.006901118756521099</v>
+        <v>0.01307554235539041</v>
       </c>
       <c r="T16">
-        <v>0.0069011187565211</v>
+        <v>0.01307554235539042</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.967860666666667</v>
+        <v>2.068613</v>
       </c>
       <c r="H17">
-        <v>5.903582</v>
+        <v>6.205839</v>
       </c>
       <c r="I17">
-        <v>0.03606888476606249</v>
+        <v>0.03728378321766519</v>
       </c>
       <c r="J17">
-        <v>0.03606888476606249</v>
+        <v>0.0372837832176652</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>21.19078820545289</v>
+        <v>22.27315679238433</v>
       </c>
       <c r="R17">
-        <v>190.717093849076</v>
+        <v>200.458411131459</v>
       </c>
       <c r="S17">
-        <v>0.003578843393740897</v>
+        <v>0.003311337990761026</v>
       </c>
       <c r="T17">
-        <v>0.003578843393740897</v>
+        <v>0.003311337990761027</v>
       </c>
     </row>
   </sheetData>
